--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_004.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_004.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
-  </si>
-  <si>
-    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
-  </si>
-  <si>
-    <t>(600000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Ventilation alignment necessary to secure affected area</t>
-  </si>
-  <si>
-    <t>(295005AA1.02) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Reactor power reduction</t>
-  </si>
-  <si>
-    <t>(295025EK2.07) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295001AA1.09) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Inadvertent criticality</t>
-  </si>
-  <si>
-    <t>(295030EK2.03) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
-  </si>
-  <si>
-    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295031EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure coolant injection (RHR)</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295002AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295029EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water level</t>
-  </si>
-  <si>
-    <t>(295036EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Systems for emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295014AK2.08) Knowledge of the relationship between the (APE 14) INADVERTENT REACTIVITY ADDITION and the following systems or components: (CFR: 41.7 / 45.8) RMCS</t>
-  </si>
-  <si>
-    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(217000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Instrument air systems</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(203000A2.20) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Surveillance acceptance criteria not being met</t>
-  </si>
-  <si>
-    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(400000K4.09) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Operation from the remote shutdown panel</t>
-  </si>
-  <si>
-    <t>(215003K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Inoperable</t>
-  </si>
-  <si>
-    <t>(262001A3.05) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Synchronization of AC sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A4.01) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM/APRM recorder </t>
-  </si>
-  <si>
-    <t>(261000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
-  </si>
-  <si>
-    <t>(264000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Lube oil components</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (291008K1.10) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Function, control, and precautions associated with disconnects</t>
-  </si>
-  <si>
-    <t>(262002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment isolation system/nuclear steam supply shutoff</t>
-  </si>
-  <si>
-    <t>(209002A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
-  </si>
-  <si>
-    <t>(510000K3.03) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Circulating water system</t>
-  </si>
-  <si>
-    <t>(212000K4.12) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing SCRAM signals</t>
-  </si>
-  <si>
-    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(259002A3.09) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Transfer of system from flow control to level control mode: FWCI</t>
-  </si>
-  <si>
-    <t>(223002A4.08) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Group isolations</t>
-  </si>
-  <si>
-    <t>(205000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump/system discharge pressure</t>
-  </si>
-  <si>
-    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(217000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Low reactor pressure</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Fuel pool cooling cleanup system</t>
-  </si>
-  <si>
-    <t>(290003A4.02) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Fans</t>
-  </si>
-  <si>
-    <t>(241000A1.23) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.5 / 45.5) Main turbine vibration</t>
-  </si>
-  <si>
-    <t>(234000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) Nuclear instrument system response to core offload/reload</t>
-  </si>
-  <si>
-    <t>(510001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (291006K1.07) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Control of heat exchanger temperatures</t>
-  </si>
-  <si>
-    <t>(286000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FPS) FIRE PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(226001A2.21) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of containment/drywell cooling system(s)</t>
-  </si>
-  <si>
-    <t>(272000K3.03) Knowledge of the effect that a loss or malfunction of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Area radiation monitoring</t>
-  </si>
-  <si>
-    <t>(202001K4.20) Knowledge of (SF1, SF4 RS) RECIRCULATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) VFD start sequencing</t>
-  </si>
-  <si>
-    <t>(219000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.5 / 45.3) System lineup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(204000A3.01) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System pressure control for low pressure piping </t>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AK2.11) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Alternate fuel pool makeup systems</t>
+  </si>
+  <si>
+    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
+  </si>
+  <si>
+    <t>(295025EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) ARI/RPT/ATWS</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295005AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Recirculation pump downshift/trip</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK2.10) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
+  </si>
+  <si>
+    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
+  </si>
+  <si>
+    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295038EK2.11) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) MSIV leakage control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295030EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) ECCSs</t>
+  </si>
+  <si>
+    <t>(295001AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295022AK2.06) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) Shared components with other units</t>
+  </si>
+  <si>
+    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(500000EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Containment atmosphere controls</t>
+  </si>
+  <si>
+    <t>(295013AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Localized heating</t>
+  </si>
+  <si>
+    <t>(295010AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Leak investigation</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
+  </si>
+  <si>
+    <t>(510000K3.17) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Service water system flows</t>
+  </si>
+  <si>
+    <t>(264000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Generator load</t>
+  </si>
+  <si>
+    <t>(209001K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Condensate storage tank low level</t>
+  </si>
+  <si>
+    <t>(211000A2.09) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic or manual initiation failure</t>
+  </si>
+  <si>
+    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(209002A4.07) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
+  </si>
+  <si>
+    <t>(261000K4.04) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Radioactive particulate filtration</t>
+  </si>
+  <si>
+    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
+  </si>
+  <si>
+    <t>(215003K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Display control system</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291006K1.01) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Startup/shutdown of a heat exchanger</t>
+  </si>
+  <si>
+    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(217000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(212000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) RPS bus status</t>
+  </si>
+  <si>
+    <t>(262001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t>(203000A2.11) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Motor-operated valve failures</t>
+  </si>
+  <si>
+    <t>(400000A3.04) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
+  </si>
+  <si>
+    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
+  </si>
+  <si>
+    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
+  </si>
+  <si>
+    <t>(239002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Drywell instrument air/drywell pneumatics</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(205000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) System venting</t>
+  </si>
+  <si>
+    <t>(510000K3.14) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate system</t>
+  </si>
+  <si>
+    <t>(233000K4.03) Knowledge of (SF9 FPCCU) FUEL POOL COOLING/CLEANUP design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining adequate pool temperature</t>
+  </si>
+  <si>
+    <t>(226001K2.01) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(201003K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) RPIS (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(234000) (SF8 FH) FUEL HANDLING (291002K1.03) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Effects of gas or steam on liquid flow rate indications (erroneous reading)</t>
+  </si>
+  <si>
+    <t>(245000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.5 / 45.3) Generator operations and limitations (reference potential)</t>
+  </si>
+  <si>
+    <t>(223001K3.17) Knowledge of the effect that a loss or malfunction of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(286000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) System pressure</t>
+  </si>
+  <si>
+    <t>(510001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Valve malfunctions</t>
+  </si>
+  <si>
+    <t>(256000A2.12) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of component cooling water systems</t>
+  </si>
+  <si>
+    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(241000A4.07) Ability to manually operate and/or monitor the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Main stop valves</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+  </si>
+  <si>
+    <t>(293008K1.34) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Explain the causes of natural circulation in BWRs</t>
+  </si>
+  <si>
+    <t>(293009K1.38) CORE THERMAL LIMITS (CFR: 41.14) (PRECONDITIONING INTERIM OPERATING MANAGEMENT RECOMMENDATIONS (PCIOMR)) State the items measured for each of the three core thermal limits</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295014AA2.03) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cause of reactivity addition</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC failures</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(202001A2.07) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation pump speed mismatch</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(215001A2.06) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
     <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(293009K1.17) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Define critical power</t>
-  </si>
-  <si>
-    <t>(293007K1.10) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define core thermal power</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(700000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator current limitations</t>
-  </si>
-  <si>
-    <t>(295008AA2.04) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Heatup rate</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295017AA2.02) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(203000A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(400000A2.10) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Spent fuel pool cooling system heat exchanger tube leak</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262001A2.06) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of a plant bus</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201003A2.02) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Uncoupled rod</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295005</t>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295001</t>
   </si>
   <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295036</t>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293009</t>
   </si>
   <si>
     <t>295009</t>
   </si>
   <si>
-    <t>295034</t>
-  </si>
-  <si>
     <t>295014</t>
   </si>
   <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>272000</t>
+    <t>295017</t>
   </si>
   <si>
     <t>202001</t>
   </si>
   <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>230000</t>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>215001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
         <v>106</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1514,7 +1514,7 @@
         <v>2.8</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D35" t="s">
         <v>113</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
         <v>106</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
         <v>113</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D59" t="s">
         <v>106</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
         <v>113</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
         <v>114</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
